--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
@@ -716,28 +716,28 @@
         <v>976</v>
       </c>
       <c r="C6" t="n">
-        <v>40.47131147540984</v>
+        <v>30.94262295081967</v>
       </c>
       <c r="D6" t="n">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>63.49206349206349</v>
+        <v>48.41269841269841</v>
       </c>
       <c r="G6" t="n">
         <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I6" t="n">
         <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="N6" t="n">
-        <v>65.99939940875181</v>
+        <v>76.542940314749</v>
       </c>
       <c r="O6" t="n">
-        <v>36.62865894192915</v>
+        <v>39.01280081294695</v>
       </c>
     </row>
     <row r="7">

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>1.948051948051948</v>
+        <v>1.986754966887417</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>16.46586345381526</v>
+        <v>10.49382716049383</v>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>29.26829268292683</v>
+        <v>27.84810126582278</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.96875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7682926829268293</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8671328671328671</v>
       </c>
       <c r="N3" t="n">
-        <v>77.14326338738016</v>
+        <v>76.56147524126122</v>
       </c>
       <c r="O3" t="n">
-        <v>52.99244783361701</v>
+        <v>55.22593464059366</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>10.91772151898734</v>
+        <v>10.75675675675676</v>
       </c>
       <c r="D4" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>33.60323886639677</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="G4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H4" t="n">
         <v>223</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7125506072874493</v>
+        <v>0.7206477732793523</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8282352941176471</v>
+        <v>0.8337236533957846</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05210518144921</v>
+        <v>85.24130330740444</v>
       </c>
       <c r="O4" t="n">
-        <v>37.49486854210146</v>
+        <v>38.6140851989415</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>20.67757009345794</v>
+        <v>20.15018773466834</v>
       </c>
       <c r="D5" t="n">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>28.2051282051282</v>
+        <v>24.77064220183486</v>
       </c>
       <c r="G5" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H5" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.8440366972477065</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9216589861751152</v>
+        <v>0.9154228855721394</v>
       </c>
       <c r="N5" t="n">
-        <v>82.5180760584644</v>
+        <v>82.36316754456274</v>
       </c>
       <c r="O5" t="n">
-        <v>61.04202285418022</v>
+        <v>62.61576306261476</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>30.94262295081967</v>
+        <v>29.6976241900648</v>
       </c>
       <c r="D6" t="n">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>48.41269841269841</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="N6" t="n">
-        <v>76.542940314749</v>
+        <v>76.72009893516741</v>
       </c>
       <c r="O6" t="n">
-        <v>39.01280081294695</v>
+        <v>44.54780853915283</v>
       </c>
     </row>
     <row r="7">
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>66.71961874503575</v>
+        <v>66.72051696284329</v>
       </c>
       <c r="D7" t="n">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>73.03370786516854</v>
+        <v>72.98850574712644</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
         <v>14</v>
@@ -792,16 +792,16 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2752808988764045</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4317180616740088</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="N7" t="n">
-        <v>79.70336098386626</v>
+        <v>79.26860411724682</v>
       </c>
       <c r="O7" t="n">
-        <v>8.385098271437867</v>
+        <v>8.402573443773244</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>12.5</v>
+        <v>12.0378331900258</v>
       </c>
       <c r="D8" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>31.70731707317073</v>
+        <v>31.16883116883117</v>
       </c>
       <c r="G8" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H8" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9606299212598425</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7439024390243902</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8384879725085911</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="N8" t="n">
-        <v>75.68309802801592</v>
+        <v>75.65591836178753</v>
       </c>
       <c r="O8" t="n">
-        <v>46.52625034353186</v>
+        <v>45.1970259342288</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1845</v>
+        <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>8.021680216802169</v>
+        <v>7.397107897664071</v>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>27.65151515151515</v>
+        <v>25.0965250965251</v>
       </c>
       <c r="G9" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H9" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7537878787878788</v>
+        <v>0.7799227799227799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8596112311015118</v>
+        <v>0.8763557483731019</v>
       </c>
       <c r="N9" t="n">
-        <v>89.59223582679672</v>
+        <v>89.34774348651426</v>
       </c>
       <c r="O9" t="n">
-        <v>51.33365357047533</v>
+        <v>53.13203561358451</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>1.986754966887417</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>2.649006622516556</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>5.263157894736842</v>
       </c>
-      <c r="G2" t="n">
-        <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>94.73684210526315</v>
+      </c>
+      <c r="P2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9473684210526315</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.972972972972973</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>91.01113851286264</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>94.26151476815119</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>10.49382716049383</v>
+        <v>450</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.02057613168724</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
-        <v>27.84810126582278</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>63</v>
       </c>
-      <c r="H3" t="n">
-        <v>74</v>
-      </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31.64556962025317</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.51898734177215</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>79.74683544303798</v>
+      </c>
+      <c r="P3" t="n">
+        <v>89.87341772151899</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.96875</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.7848101265822784</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.8671328671328671</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>76.56147524126122</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>55.22593464059366</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>10.75675675675676</v>
+        <v>1766</v>
       </c>
       <c r="D4" t="n">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.405405405405405</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>33.19838056680162</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>173</v>
       </c>
-      <c r="H4" t="n">
-        <v>223</v>
-      </c>
       <c r="I4" t="n">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
+        <v>43</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37.24696356275304</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.50607287449393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29</v>
+      </c>
+      <c r="O4" t="n">
+        <v>70.04048582995951</v>
+      </c>
+      <c r="P4" t="n">
+        <v>81.78137651821862</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9888888888888889</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.7206477732793523</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8337236533957846</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>85.24130330740444</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>38.6140851989415</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>20.15018773466834</v>
+        <v>678</v>
       </c>
       <c r="D5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.77346683354193</v>
+      </c>
+      <c r="G5" t="n">
         <v>109</v>
       </c>
-      <c r="F5" t="n">
-        <v>24.77064220183486</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>91</v>
       </c>
-      <c r="H5" t="n">
-        <v>101</v>
-      </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.43119266055046</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.84403669724771</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>83.48623853211009</v>
+      </c>
+      <c r="P5" t="n">
+        <v>88.07339449541286</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.8440366972477065</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9154228855721394</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>82.36316754456274</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>62.61576306261476</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6976241900648</v>
+        <v>752</v>
       </c>
       <c r="D6" t="n">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.89848812095033</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>92</v>
       </c>
-      <c r="H6" t="n">
-        <v>101</v>
-      </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20.63492063492063</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>73.01587301587301</v>
+      </c>
+      <c r="P6" t="n">
+        <v>76.98412698412699</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.7380952380952381</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.8493150684931506</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>76.72009893516741</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>44.54780853915283</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>66.72051696284329</v>
+        <v>447</v>
       </c>
       <c r="D7" t="n">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63.97415185783522</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>72.98850574712644</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>48</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>52</v>
       </c>
-      <c r="I7" t="n">
-        <v>68</v>
-      </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="n">
+        <v>43.10344827586206</v>
+      </c>
+      <c r="M7" t="n">
+        <v>40.80459770114943</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>27.58620689655172</v>
+      </c>
+      <c r="P7" t="n">
+        <v>29.88505747126437</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.2758620689655172</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.4324324324324325</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>79.26860411724682</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>8.402573443773244</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>12.0378331900258</v>
+        <v>1081</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.23215821152193</v>
+      </c>
+      <c r="G8" t="n">
         <v>154</v>
       </c>
-      <c r="F8" t="n">
-        <v>31.16883116883117</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>116</v>
       </c>
-      <c r="H8" t="n">
-        <v>141</v>
-      </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
+        <v>27</v>
+      </c>
+      <c r="L8" t="n">
+        <v>33.11688311688312</v>
+      </c>
+      <c r="M8" t="n">
+        <v>24.02597402597403</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>75.32467532467533</v>
+      </c>
+      <c r="P8" t="n">
+        <v>84.41558441558441</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9661016949152542</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.7402597402597403</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.8382352941176471</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>75.65591836178753</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>45.1970259342288</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>7.397107897664071</v>
+        <v>1735</v>
       </c>
       <c r="D9" t="n">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.949944382647386</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>25.0965250965251</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>201</v>
       </c>
-      <c r="H9" t="n">
-        <v>243</v>
-      </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24.71042471042471</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19.69111969111969</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>77.60617760617761</v>
+      </c>
+      <c r="P9" t="n">
+        <v>82.62548262548263</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.7799227799227799</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8763557483731019</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>89.34774348651426</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>53.13203561358451</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
@@ -690,64 +690,64 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1766</v>
+        <v>1779</v>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0941</v>
+        <v>0.08</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5142</v>
+        <v>0.4696</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2794</v>
+        <v>0.2551</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8383</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7773</v>
+        <v>0.7976</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8807</v>
+        <v>0.8874</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7514999999999999</v>
+        <v>0.7725</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8477</v>
+        <v>0.8621</v>
       </c>
       <c r="T4" t="n">
         <v>0.8524</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3861</v>
+        <v>0.4028</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -830,64 +830,64 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.189</v>
+        <v>0.1868</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.254</v>
+        <v>0.246</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1746</v>
+        <v>0.1825</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8852</v>
+        <v>0.8862</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9231</v>
+        <v>0.916</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8571</v>
+        <v>0.8651</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8925999999999999</v>
+        <v>0.8934</v>
       </c>
       <c r="R6" t="n">
-        <v>0.871</v>
+        <v>0.8754999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9076</v>
+        <v>0.9046</v>
       </c>
       <c r="T6" t="n">
         <v>0.7672</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4455</v>
+        <v>0.4527</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C7" t="n">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6397</v>
+        <v>0.6381</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4713</v>
+        <v>0.4598</v>
       </c>
       <c r="M7" t="n">
         <v>0.4253</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8833</v>
+        <v>0.8917</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9137999999999999</v>
+        <v>0.9145</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6092</v>
+        <v>0.6149</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6257</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7211</v>
+        <v>0.7279</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7413</v>
+        <v>0.7431</v>
       </c>
       <c r="T7" t="n">
         <v>0.7927</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,64 +970,64 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1023</v>
+        <v>0.0954</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4351</v>
+        <v>0.4026</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2532</v>
+        <v>0.2338</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7574</v>
+        <v>0.7771</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8258</v>
+        <v>0.8431</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8312</v>
+        <v>0.8377</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9143</v>
+        <v>0.9149</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7926</v>
+        <v>0.8062</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8678</v>
+        <v>0.8776</v>
       </c>
       <c r="T8" t="n">
         <v>0.7566000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>0.452</v>
+        <v>0.4907</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0495</v>
+        <v>0.0428</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2973</v>
+        <v>0.2896</v>
       </c>
       <c r="M9" t="n">
         <v>0.1969</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8116</v>
+        <v>0.8151</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8495</v>
+        <v>0.85</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9151</v>
+        <v>0.9189000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9634</v>
+        <v>0.9636</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8603</v>
+        <v>0.8639</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9029</v>
+        <v>0.9032</v>
       </c>
       <c r="T9" t="n">
         <v>0.8935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5313</v>
+        <v>0.5421</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Qwen/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0265</v>
+        <v>0.0133</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1502</v>
+        <v>0.0756</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
         <v>71</v>
       </c>
-      <c r="D4" t="n">
-        <v>77</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.08</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1877</v>
+        <v>0.0583</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1868</v>
+        <v>0.1689</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C7" t="n">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6381</v>
+        <v>0.6366000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0954</v>
+        <v>0.0357</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
         <v>1741</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0428</v>
+        <v>0.0331</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
